--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.246</v>
+        <v>0.312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246</v>
+        <v>0.312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.161</v>
+        <v>0.359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.161</v>
+        <v>0.359</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.205</v>
+        <v>0.151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205</v>
+        <v>0.151</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.831165466574021</v>
+        <v>1.702579377335496</v>
       </c>
       <c r="C4" t="n">
-        <v>1.828554873121902</v>
+        <v>1.74554587516468</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14</v>
+        <v>2.52</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1677167853063332</v>
+        <v>0.2572059654744097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1944837464396678</v>
+        <v>0.2087257811510784</v>
       </c>
       <c r="G4" t="n">
-        <v>15.96</v>
+        <v>-18.85</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.742</v>
+        <v>4.504</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>4.504</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.80862994723387</v>
+        <v>19.23666379127991</v>
       </c>
       <c r="C6" t="n">
-        <v>18.92845619619633</v>
+        <v>19.2551753202286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>3.36365759513472</v>
+        <v>2.223756707628614</v>
       </c>
       <c r="F6" t="n">
-        <v>3.456518925080096</v>
+        <v>1.796732621134004</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>-19.2</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.312</v>
+        <v>0.288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312</v>
+        <v>0.288</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.359</v>
+        <v>0.323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359</v>
+        <v>0.323</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.151</v>
+        <v>0.287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151</v>
+        <v>0.287</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.702579377335496</v>
+        <v>1.993218810181133</v>
       </c>
       <c r="C4" t="n">
-        <v>1.74554587516468</v>
+        <v>1.911052688257769</v>
       </c>
       <c r="D4" t="n">
-        <v>2.52</v>
+        <v>-4.12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2572059654744097</v>
+        <v>0.4050388844962998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2087257811510784</v>
+        <v>0.2920060166507652</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.85</v>
+        <v>-27.91</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.504</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4.504</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.23666379127991</v>
+        <v>18.53567900270675</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2551753202286</v>
+        <v>18.63061105707315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>2.223756707628614</v>
+        <v>3.152158469993653</v>
       </c>
       <c r="F6" t="n">
-        <v>1.796732621134004</v>
+        <v>2.420885481759897</v>
       </c>
       <c r="G6" t="n">
-        <v>-19.2</v>
+        <v>-23.2</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
